--- a/Output/rice_total_year_result.xlsx
+++ b/Output/rice_total_year_result.xlsx
@@ -48,7 +48,7 @@
     <t>(.002877)</t>
   </si>
   <si>
-    <t>1950 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1950 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-164.417*  </t>
@@ -69,7 +69,7 @@
     <t>(175.3199)</t>
   </si>
   <si>
-    <t>1951 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1951 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-128.5518   </t>
@@ -84,7 +84,7 @@
     <t>(109.5157)</t>
   </si>
   <si>
-    <t>1954 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1954 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-177.9363   </t>
@@ -105,7 +105,7 @@
     <t>(270.7242)</t>
   </si>
   <si>
-    <t>1955 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1955 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-398.7044*  </t>
@@ -126,7 +126,7 @@
     <t>(220.6266)</t>
   </si>
   <si>
-    <t>1956 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1956 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-40.86703   </t>
